--- a/03_ips_clean/09_data_web/04_01_entidades_ganaron.xlsx
+++ b/03_ips_clean/09_data_web/04_01_entidades_ganaron.xlsx
@@ -12,36 +12,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Entidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Diferencia en puntuación entre 2020 y 2021</t>
+    <t xml:space="preserve">Diferencia en puntuación entre 2020 y 2022</t>
   </si>
   <si>
     <t xml:space="preserve">CHIH</t>
   </si>
   <si>
+    <t xml:space="preserve">SIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDMX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QROO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGS</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAB</t>
   </si>
   <si>
+    <t xml:space="preserve">YUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAY</t>
+  </si>
+  <si>
     <t xml:space="preserve">TLAX</t>
   </si>
   <si>
-    <t xml:space="preserve">SLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAH</t>
+    <t xml:space="preserve">GRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL</t>
   </si>
 </sst>
 </file>
@@ -386,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1.51</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="3">
@@ -394,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1.41</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="4">
@@ -402,7 +468,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.07</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="5">
@@ -410,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.87</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="6">
@@ -418,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.79</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +492,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.78</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="8">
@@ -434,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.66</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="9">
@@ -442,7 +508,183 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/04_01_entidades_ganaron.xlsx
+++ b/03_ips_clean/09_data_web/04_01_entidades_ganaron.xlsx
@@ -12,102 +12,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Entidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Diferencia en puntuación entre 2020 y 2022</t>
+    <t xml:space="preserve">Diferencia en puntuación entre 2020 y 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDMX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAM</t>
   </si>
   <si>
     <t xml:space="preserve">CHIH</t>
   </si>
   <si>
-    <t xml:space="preserve">SIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDMX</t>
+    <t xml:space="preserve">AGS</t>
   </si>
   <si>
     <t xml:space="preserve">QROO</t>
   </si>
   <si>
+    <t xml:space="preserve">PUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEX</t>
   </si>
   <si>
-    <t xml:space="preserve">SLP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAB</t>
+    <t xml:space="preserve">BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAL</t>
   </si>
   <si>
     <t xml:space="preserve">YUC</t>
   </si>
   <si>
-    <t xml:space="preserve">TAM</t>
+    <t xml:space="preserve">GRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL</t>
   </si>
   <si>
     <t xml:space="preserve">MOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>5.68</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>5.48</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>5.47</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>5.1</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>4.88</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>4.7</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>4.67</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>4.56</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>4.29</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>3.97</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>3.87</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>3.86</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>3.58</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>3.38</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>3.12</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="17">
@@ -572,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>2.93</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="18">
@@ -580,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>2.91</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>2.88</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>2.62</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>2.36</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>2.1</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>2.03</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1.82</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="25">
@@ -636,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>1.55</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="26">
@@ -644,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>1.22</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.81</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +666,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.47</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +682,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="31">
@@ -684,7 +690,23 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05</v>
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>
